--- a/SpringbootProject/工作簿1.xlsx
+++ b/SpringbootProject/工作簿1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yu FAN\Desktop\web_dev\SpringbootProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A7B590-A405-458D-B6C2-8575BD4AC5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D94628-60B6-4E41-BCE6-545D557375F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{472ABDB7-8AAD-487E-897D-CE5FA977F005}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{472ABDB7-8AAD-487E-897D-CE5FA977F005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>user</t>
   </si>
@@ -47,105 +47,187 @@
     <t>password</t>
   </si>
   <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>role_access</t>
+  </si>
+  <si>
+    <t>access_id</t>
+  </si>
+  <si>
+    <t>access_name</t>
+  </si>
+  <si>
+    <t>update_by</t>
+  </si>
+  <si>
+    <t>database_delete_privilage</t>
+  </si>
+  <si>
+    <t>展示所有数据</t>
+  </si>
+  <si>
+    <t>删除数据</t>
+  </si>
+  <si>
+    <t>更新数据</t>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status（默认为pending）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_write_privilage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_read_privilage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载数据到云端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有用户订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色为client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_update_privilage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender: '',
+  fullName: '',
+  email: '',
+  site: '',
+  product: '',
+  issue: '',
+  newsletter: false,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>create_by</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>role_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsletter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>role_id</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>permission</t>
-  </si>
-  <si>
-    <t>role_access</t>
-  </si>
-  <si>
-    <t>access_id</t>
-  </si>
-  <si>
-    <t>access_name</t>
-  </si>
-  <si>
-    <t>update_by</t>
-  </si>
-  <si>
-    <t>access_database</t>
-  </si>
-  <si>
-    <t>database_write_privilage</t>
-  </si>
-  <si>
-    <t>database_read_privilage</t>
-  </si>
-  <si>
-    <t>database_update_privilage</t>
-  </si>
-  <si>
-    <t>database_delete_privilage</t>
-  </si>
-  <si>
-    <t>进入数据库</t>
-  </si>
-  <si>
-    <t>下载数据到云端</t>
-  </si>
-  <si>
-    <t>展示所有数据</t>
-  </si>
-  <si>
-    <t>删除数据</t>
-  </si>
-  <si>
-    <t>更新数据</t>
-  </si>
-  <si>
-    <t>access_order</t>
-  </si>
-  <si>
-    <t>进入下单</t>
-  </si>
-  <si>
-    <t>填写详情</t>
-  </si>
-  <si>
-    <t>fill_order_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> order &lt;- user -&gt; user_role -&gt; role -&gt; role_access -&gt; access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,12 +235,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,17 +286,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,141 +639,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11D056-5960-4739-AA55-456506263D90}">
-  <dimension ref="B9:W23"/>
+  <dimension ref="B8:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -673,29 +790,25 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -706,20 +819,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -730,20 +837,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -754,129 +855,170 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+    </row>
+    <row r="20" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="32" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="Q32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q32:T39"/>
+    <mergeCell ref="D30:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>